--- a/test.xlsx
+++ b/test.xlsx
@@ -142,7 +142,7 @@
   <dimension ref="A1:A13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C25" activeCellId="0" sqref="C25"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
